--- a/Resultados/Escenario 6/objective_value.xlsx
+++ b/Resultados/Escenario 6/objective_value.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1024076.292602087</v>
+        <v>474340.6412272422</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1254874.134535237</v>
+        <v>665808.5896846398</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>996885.5962153052</v>
+        <v>657520.5606904426</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1051767.256126175</v>
+        <v>622788.6700764165</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1002846.143383092</v>
+        <v>613278.0949641009</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1059819.098147894</v>
+        <v>653661.9473958272</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1005003.494768224</v>
+        <v>422128.2696844629</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1155993.939441882</v>
+        <v>599841.1757448922</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>259</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>921531.5980017881</v>
+        <v>729680.5096378271</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1017049.39084912</v>
+        <v>569120.7453061773</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1272421.537623587</v>
+        <v>497745.5152073607</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1126252.922629709</v>
+        <v>591754.7253618877</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>990652.0337297351</v>
+        <v>728617.1480208187</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>937941.7197923647</v>
+        <v>583773.5076208861</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1120742.149429691</v>
+        <v>599497.6945306277</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1342798.644860439</v>
+        <v>743728.2121399615</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>931225.2584597438</v>
+        <v>577819.7944117279</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1029682.750323254</v>
+        <v>601233.415087716</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>901166.9123115023</v>
+        <v>612589.5703699932</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1143296.797978339</v>
+        <v>649682.0268677551</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1031258.745542492</v>
+        <v>586666.2452843555</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>919550.7860330781</v>
+        <v>608648.1607757651</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1336575.046829764</v>
+        <v>613275.4387418355</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>905040.7934549642</v>
+        <v>655931.1587423603</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1225425.94307893</v>
+        <v>458642.5274705288</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>988700.797532714</v>
+        <v>649574.7720600783</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1064133.892567661</v>
+        <v>529204.7183275246</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>992989.0629088967</v>
+        <v>715047.9391194939</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>960811.4638166371</v>
+        <v>560501.2148198202</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>936367.8341865867</v>
+        <v>556737.5957082587</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1169728.325597563</v>
+        <v>711761.9536297951</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1080784.141199986</v>
+        <v>508971.8133323698</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1097359.8156804</v>
+        <v>539045.2547738279</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1107526.96361341</v>
+        <v>726358.5526710412</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1067464.61766066</v>
+        <v>663692.5804313134</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1028980.699662778</v>
+        <v>706459.003250776</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1264344.415871578</v>
+        <v>574975.0841282534</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1152380.3528483</v>
+        <v>612615.741628308</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>788921.4062054271</v>
+        <v>569304.8528204642</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>934312.9149938105</v>
+        <v>643247.1299186742</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1277277.23817365</v>
+        <v>528130.8493108843</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>910852.5747856922</v>
+        <v>702162.6077643847</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1202107.484010171</v>
+        <v>557540.9383582606</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1063277.68932104</v>
+        <v>577320.8413074574</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>938542.4492187721</v>
+        <v>748293.123002245</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>883313.0650510351</v>
+        <v>684182.7135156344</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>297</v>
+        <v>47</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1230059.247888712</v>
+        <v>521817.6715084387</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>298</v>
+        <v>48</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1233911.136877399</v>
+        <v>630949.4579844633</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1100529.264832461</v>
+        <v>520514.6848103866</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1023018.796229252</v>
+        <v>716961.2916507702</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>963581.320653126</v>
+        <v>505062.6255060101</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>302</v>
+        <v>52</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1244960.549657624</v>
+        <v>617882.0024645608</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1101690.60804562</v>
+        <v>648414.0633909118</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>969686.3313519992</v>
+        <v>591369.8637247204</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1178568.942005409</v>
+        <v>595941.8805132016</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>306</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1001155.46541416</v>
+        <v>683108.7064855375</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>969457.9299181609</v>
+        <v>578462.8644783167</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1147972.560020871</v>
+        <v>686168.4378218425</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1171958.312844111</v>
+        <v>600906.3619678259</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1029771.479073875</v>
+        <v>603141.07339003</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>798580.1752751482</v>
+        <v>649018.2858922235</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1024435.380234407</v>
+        <v>487882.9412390168</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>313</v>
+        <v>63</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1346020.404633642</v>
+        <v>661111.4847254533</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>834557.1029508439</v>
+        <v>622020.1181818601</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1156779.412276019</v>
+        <v>620625.5902485305</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1172278.686651868</v>
+        <v>559677.6500086794</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>317</v>
+        <v>67</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1021346.904461581</v>
+        <v>558448.9266410136</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1009599.553936757</v>
+        <v>729508.8766090793</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>319</v>
+        <v>69</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1212002.17100881</v>
+        <v>524471.6012692986</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>860417.0357761554</v>
+        <v>710243.4023257246</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>321</v>
+        <v>71</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1098847.111927935</v>
+        <v>477699.5500081063</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>977924.5959563903</v>
+        <v>611475.1180568204</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1096235.264153264</v>
+        <v>569194.2498752428</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>918009.955526239</v>
+        <v>672475.2153940088</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>958494.3236403971</v>
+        <v>659852.4268257278</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>891703.6008851778</v>
+        <v>558756.9624581485</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1271071.538271626</v>
+        <v>724167.1620670882</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>930328.7458000813</v>
+        <v>623831.9465316484</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1356473.035511153</v>
+        <v>522750.1141769163</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>940608.8226940148</v>
+        <v>679837.0674321596</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1171224.238703664</v>
+        <v>593723.1856234937</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1098662.027654532</v>
+        <v>521978.6464419707</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1159949.226473695</v>
+        <v>615969.61064402</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1279644.107065496</v>
+        <v>661231.1018434358</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>949635.6017816607</v>
+        <v>500942.2792849919</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>336</v>
+        <v>86</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1172898.81448521</v>
+        <v>614836.1800824904</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>908787.4552900707</v>
+        <v>669598.9759912363</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1146492.24725038</v>
+        <v>554221.6119656106</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1150608.588901744</v>
+        <v>564919.0200584154</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>901658.3190691259</v>
+        <v>656803.6612202551</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>341</v>
+        <v>91</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1120455.157692425</v>
+        <v>619306.607059176</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1125894.22510011</v>
+        <v>748139.2865945221</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>940837.7773702097</v>
+        <v>655921.7085189521</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>997851.16840016</v>
+        <v>554014.5001446293</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1099609.453351827</v>
+        <v>691854.2842481266</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1196529.090806314</v>
+        <v>568922.6649234081</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>993179.6611883439</v>
+        <v>610870.5669488779</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>348</v>
+        <v>98</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1171130.161272668</v>
+        <v>592708.3727196926</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>839771.1622694707</v>
+        <v>616570.4999714622</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1217408.007440323</v>
+        <v>569526.6561446012</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1031548.874682851</v>
+        <v>586411.3775744102</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>790771.3338806303</v>
+        <v>705628.0423047816</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>353</v>
+        <v>103</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1207095.807648186</v>
+        <v>583134.2446194558</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>354</v>
+        <v>104</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1328218.922083566</v>
+        <v>698718.8328968468</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>900917.0802090928</v>
+        <v>625308.2175532165</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>977870.4637014191</v>
+        <v>533629.073375222</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1202810.887329874</v>
+        <v>623201.235144452</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1134445.094160521</v>
+        <v>607424.2661376874</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>945247.9405737494</v>
+        <v>608468.4947554728</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1000729.885155488</v>
+        <v>588636.718775486</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1267868.718245029</v>
+        <v>559313.8424469929</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>755183.5647044524</v>
+        <v>436188.7628568897</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>363</v>
+        <v>113</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>884858.8012158996</v>
+        <v>690832.9756968122</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>364</v>
+        <v>114</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1057480.846486996</v>
+        <v>625411.1203714676</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>1359525.720310002</v>
+        <v>570636.2417781982</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>366</v>
+        <v>116</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1078821.678779577</v>
+        <v>562851.6242290684</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1084964.452786061</v>
+        <v>557627.1163600192</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>368</v>
+        <v>118</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>901786.1012307127</v>
+        <v>809302.4453805387</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>931339.4942688905</v>
+        <v>521045.9006965448</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1120521.34053663</v>
+        <v>552064.4849729991</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1349999.794765695</v>
+        <v>745490.7630900677</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>372</v>
+        <v>122</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>824906.2948545397</v>
+        <v>704004.0294989164</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1123896.581262005</v>
+        <v>502767.4817864441</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>374</v>
+        <v>124</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>968788.0399006471</v>
+        <v>647944.4292095443</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1167202.084891434</v>
+        <v>713534.4200002401</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1055858.342145357</v>
+        <v>450555.0561966845</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>377</v>
+        <v>127</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>953929.2155389551</v>
+        <v>658105.4028045472</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1065731.047530997</v>
+        <v>628293.7764174311</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1074860.093697361</v>
+        <v>461799.1910362751</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1200032.771452722</v>
+        <v>755130.1556570663</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1039754.913276637</v>
+        <v>666394.5123242633</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>1077071.40438338</v>
+        <v>410946.8782520105</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>383</v>
+        <v>133</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1089985.613502236</v>
+        <v>699067.4074620148</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>384</v>
+        <v>134</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1023309.665641685</v>
+        <v>727413.5034677561</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>1230799.243228788</v>
+        <v>601963.6426927075</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1033307.208012726</v>
+        <v>502087.5632471633</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>387</v>
+        <v>137</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1028711.371355388</v>
+        <v>682787.3819850804</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1119972.682648923</v>
+        <v>648388.9093245129</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>1154253.060034181</v>
+        <v>644784.9550264501</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1101171.813649328</v>
+        <v>518021.0664942934</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>391</v>
+        <v>141</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1057123.422523585</v>
+        <v>597839.0449979547</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1041909.923463015</v>
+        <v>641160.4189645211</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>887243.3895075554</v>
+        <v>569524.7340379958</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>394</v>
+        <v>144</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>1115812.480915525</v>
+        <v>603836.4132159188</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>395</v>
+        <v>145</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>940236.6277328974</v>
+        <v>600342.9850762626</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>396</v>
+        <v>146</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1173122.283675536</v>
+        <v>666240.2649815507</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>397</v>
+        <v>147</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1074261.060345339</v>
+        <v>653419.9058522335</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>398</v>
+        <v>148</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1052105.674688702</v>
+        <v>648168.8560433082</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>1080096.14143332</v>
+        <v>602432.8097270183</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1021677.884179635</v>
+        <v>508965.6149337287</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>1037179.191219583</v>
+        <v>618423.7066099494</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>402</v>
+        <v>152</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>1087531.828889265</v>
+        <v>748200.9816323771</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>1143383.234309143</v>
+        <v>475530.2980492415</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>404</v>
+        <v>154</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>930175.6481975123</v>
+        <v>651636.5501598502</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>405</v>
+        <v>155</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>1166297.709227582</v>
+        <v>554737.8134816907</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>995697.4361915754</v>
+        <v>684694.7682687078</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>927665.1565300776</v>
+        <v>645615.6303576828</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>408</v>
+        <v>158</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>1076153.280750898</v>
+        <v>670178.9583809327</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>409</v>
+        <v>159</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>819682.341700471</v>
+        <v>583442.3803385844</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>1152675.066491493</v>
+        <v>609861.7865575497</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>411</v>
+        <v>161</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1220431.786868343</v>
+        <v>668643.1258022282</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>412</v>
+        <v>162</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>1163945.809658527</v>
+        <v>588419.4694383013</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>413</v>
+        <v>163</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>883989.9425820583</v>
+        <v>579963.0085830225</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>414</v>
+        <v>164</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>1060718.395503585</v>
+        <v>528700.4108549409</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>415</v>
+        <v>165</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>1081247.675431123</v>
+        <v>659686.1011031993</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>991902.9581279289</v>
+        <v>577297.8571916184</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>417</v>
+        <v>167</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>1052641.707224558</v>
+        <v>717653.4414531576</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>1126009.105023987</v>
+        <v>560549.4795460436</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>1096515.19211217</v>
+        <v>561687.178469567</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>992417.8783768319</v>
+        <v>582491.6047825064</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>972843.6300229219</v>
+        <v>668254.8891431178</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>422</v>
+        <v>172</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>1262264.579434173</v>
+        <v>571971.2490422784</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>1067585.977137584</v>
+        <v>545950.7280833597</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>1060725.860964623</v>
+        <v>615284.2375505798</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>1127783.663726478</v>
+        <v>618087.2390864437</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>426</v>
+        <v>176</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1127046.122342896</v>
+        <v>599639.4424477454</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>427</v>
+        <v>177</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>1061701.616566308</v>
+        <v>609397.4998281579</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>428</v>
+        <v>178</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>1183090.738598953</v>
+        <v>785224.9238874582</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>429</v>
+        <v>179</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>916589.7724249798</v>
+        <v>595116.8742872929</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>977855.7666405999</v>
+        <v>659880.4335648248</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>431</v>
+        <v>181</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>1369516.753497208</v>
+        <v>557622.9530770566</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>1023593.672405006</v>
+        <v>524648.6070567255</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>433</v>
+        <v>183</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>929426.0724011504</v>
+        <v>558963.9480533972</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>434</v>
+        <v>184</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>995318.3172206294</v>
+        <v>609738.4798078701</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>435</v>
+        <v>185</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>1107370.236615583</v>
+        <v>641997.1349082853</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>436</v>
+        <v>186</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>769242.8834078807</v>
+        <v>654678.2655283925</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>437</v>
+        <v>187</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>1056814.461847866</v>
+        <v>645489.6838794661</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>1074882.64991864</v>
+        <v>528807.5251743527</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>439</v>
+        <v>189</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>1199226.769242364</v>
+        <v>524783.8359399436</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1117719.932594914</v>
+        <v>757629.2438041918</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>441</v>
+        <v>191</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>818306.9918185606</v>
+        <v>702664.0262546624</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>811418.3323270569</v>
+        <v>565852.4962696471</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>443</v>
+        <v>193</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>1163601.656295627</v>
+        <v>637330.8395527622</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>1330435.831928159</v>
+        <v>485489.6942960332</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>445</v>
+        <v>195</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>915048.3111521446</v>
+        <v>562439.475491785</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>1114027.109167646</v>
+        <v>739853.8622327081</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>1028067.176385255</v>
+        <v>563965.3817710322</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>448</v>
+        <v>198</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>1090456.964337513</v>
+        <v>619613.3361812409</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>449</v>
+        <v>199</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>1256506.430884616</v>
+        <v>564664.7031255645</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>1115123.912197231</v>
+        <v>547334.5295623858</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>886050.2031622061</v>
+        <v>725825.217840063</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>452</v>
+        <v>202</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>991312.9398815533</v>
+        <v>572647.2857750932</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>453</v>
+        <v>203</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>1023589.962192973</v>
+        <v>669802.5233080282</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>454</v>
+        <v>204</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>974619.2581383674</v>
+        <v>638767.1651769673</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>455</v>
+        <v>205</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>889605.7261738655</v>
+        <v>632361.9043926907</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>456</v>
+        <v>206</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>881569.1886765556</v>
+        <v>562130.0489435662</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>457</v>
+        <v>207</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>1076644.930295665</v>
+        <v>654427.4837986646</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>1357626.636200786</v>
+        <v>521102.6647566411</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>1208727.487911492</v>
+        <v>670881.7461504992</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>988937.7978019735</v>
+        <v>525942.5003355381</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1183675.424050688</v>
+        <v>492852.74860719</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>987386.384504312</v>
+        <v>709927.9779389438</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>463</v>
+        <v>213</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>1206915.892596611</v>
+        <v>565782.0424638498</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>464</v>
+        <v>214</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>990543.2477121972</v>
+        <v>775656.2419627206</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>465</v>
+        <v>215</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>1011679.08251198</v>
+        <v>565300.3844714309</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>466</v>
+        <v>216</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>1245398.184636653</v>
+        <v>598867.7827097771</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>467</v>
+        <v>217</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>1181552.178497084</v>
+        <v>688842.5770819995</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>468</v>
+        <v>218</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>1082882.622152172</v>
+        <v>637103.4957337584</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>469</v>
+        <v>219</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>1102732.076249246</v>
+        <v>616481.8544699731</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>1054294.823084069</v>
+        <v>591144.1589000244</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>471</v>
+        <v>221</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>1060166.882196819</v>
+        <v>582806.9026331401</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>472</v>
+        <v>222</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>932043.6256405277</v>
+        <v>648806.408737083</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>473</v>
+        <v>223</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>1269000.594541477</v>
+        <v>697516.8075611547</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>474</v>
+        <v>224</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>1031627.499849102</v>
+        <v>549315.7211830697</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>475</v>
+        <v>225</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>979391.2175097244</v>
+        <v>579074.6791674888</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>476</v>
+        <v>226</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>962208.1902704474</v>
+        <v>496033.7011777144</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>477</v>
+        <v>227</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>1064925.152227981</v>
+        <v>601080.129301513</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>478</v>
+        <v>228</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>908497.6686382982</v>
+        <v>591359.1992181633</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>479</v>
+        <v>229</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>1196829.01581897</v>
+        <v>569667.3534387671</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>1134946.167384265</v>
+        <v>595895.2792933967</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>481</v>
+        <v>231</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>836556.3766677466</v>
+        <v>520916.7788725531</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>482</v>
+        <v>232</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>1108882.043737293</v>
+        <v>677155.1095142498</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>483</v>
+        <v>233</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>1135373.970525098</v>
+        <v>513641.5472185902</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>484</v>
+        <v>234</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>938518.6130563412</v>
+        <v>558788.0971388964</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>485</v>
+        <v>235</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>1021929.625242024</v>
+        <v>587005.2493077546</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>486</v>
+        <v>236</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>1308349.187589444</v>
+        <v>582253.3349004346</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>487</v>
+        <v>237</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>935398.1816757844</v>
+        <v>691896.5379733851</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>1211555.068399578</v>
+        <v>667791.6109996977</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>489</v>
+        <v>239</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>1106459.636731416</v>
+        <v>731531.4286429045</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>1161161.479690094</v>
+        <v>675721.4162153176</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>1098898.577952113</v>
+        <v>572246.8549733924</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>492</v>
+        <v>242</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>889035.0480545794</v>
+        <v>497323.186156339</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>493</v>
+        <v>243</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>946053.7974059497</v>
+        <v>687747.1546071668</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>494</v>
+        <v>244</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>870151.1839374545</v>
+        <v>602164.4615072842</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>495</v>
+        <v>245</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>800299.5874722542</v>
+        <v>785563.6187982687</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>496</v>
+        <v>246</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>1255927.307388276</v>
+        <v>524076.6505319553</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>1265327.02495209</v>
+        <v>550637.7364618693</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>498</v>
+        <v>248</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>1204247.054523806</v>
+        <v>689293.4011287664</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>1220910.30144817</v>
+        <v>523207.4657641288</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>789258.9729872091</v>
+        <v>522603.8429346554</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 6/objective_value.xlsx
+++ b/Resultados/Escenario 6/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>474340.6412272422</v>
+        <v>550285.0475129253</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>665808.5896846398</v>
+        <v>1056518.135747441</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>657520.5606904426</v>
+        <v>1029188.189724508</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>622788.6700764165</v>
+        <v>897890.9841390749</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>613278.0949641009</v>
+        <v>987410.7448544428</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>653661.9473958272</v>
+        <v>1005374.803823281</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>422128.2696844629</v>
+        <v>586082.0747830357</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>599841.1757448922</v>
+        <v>1015508.331687339</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>729680.5096378271</v>
+        <v>1097828.74036295</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>569120.7453061773</v>
+        <v>879835.1229218994</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>497745.5152073607</v>
+        <v>768651.685027163</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>591754.7253618877</v>
+        <v>939901.7543812469</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>728617.1480208187</v>
+        <v>1212058.141740707</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>583773.5076208861</v>
+        <v>919497.0799065648</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>599497.6945306277</v>
+        <v>911196.7913736731</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>743728.2121399615</v>
+        <v>1182993.301583533</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>577819.7944117279</v>
+        <v>892109.2936626713</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>601233.415087716</v>
+        <v>929495.1160672943</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>612589.5703699932</v>
+        <v>937392.8865448823</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>649682.0268677551</v>
+        <v>1052926.669566368</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>586666.2452843555</v>
+        <v>825223.608427075</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>608648.1607757651</v>
+        <v>965503.3048132801</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>613275.4387418355</v>
+        <v>1014133.197923875</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>655931.1587423603</v>
+        <v>1079325.279052919</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>458642.5274705288</v>
+        <v>669017.3360789623</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>649574.7720600783</v>
+        <v>1087200.674871711</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>529204.7183275246</v>
+        <v>809038.4506081578</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>715047.9391194939</v>
+        <v>1160694.030943674</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>560501.2148198202</v>
+        <v>849985.8917909889</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>556737.5957082587</v>
+        <v>987430.9333372674</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>711761.9536297951</v>
+        <v>1110342.098868136</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>508971.8133323698</v>
+        <v>756896.0580795653</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>539045.2547738279</v>
+        <v>860645.7946486352</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>726358.5526710412</v>
+        <v>1195418.116426902</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>663692.5804313134</v>
+        <v>923116.1499284961</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>706459.003250776</v>
+        <v>1111004.63070486</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>574975.0841282534</v>
+        <v>903203.1993633903</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>612615.741628308</v>
+        <v>948274.0173719553</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>569304.8528204642</v>
+        <v>945042.9626876807</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>643247.1299186742</v>
+        <v>959687.0408507341</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>528130.8493108843</v>
+        <v>797055.0740378142</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>702162.6077643847</v>
+        <v>1143789.97010488</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>557540.9383582606</v>
+        <v>881332.6036771321</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>577320.8413074574</v>
+        <v>944174.1165771149</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>748293.123002245</v>
+        <v>1116685.922058441</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>684182.7135156344</v>
+        <v>1107941.256486762</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>521817.6715084387</v>
+        <v>790032.7859064757</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>630949.4579844633</v>
+        <v>1020276.229723707</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>520514.6848103866</v>
+        <v>813898.3838856448</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>716961.2916507702</v>
+        <v>1188992.023916753</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>505062.6255060101</v>
+        <v>781031.1487411605</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>617882.0024645608</v>
+        <v>966108.6514589059</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>648414.0633909118</v>
+        <v>1063089.743703146</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>591369.8637247204</v>
+        <v>953363.1086364258</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>595941.8805132016</v>
+        <v>1021664.30578954</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>683108.7064855375</v>
+        <v>1011491.73138424</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>578462.8644783167</v>
+        <v>880748.6379392052</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>686168.4378218425</v>
+        <v>1055161.285761153</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>600906.3619678259</v>
+        <v>1073599.495065358</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>603141.07339003</v>
+        <v>824815.1804356603</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>649018.2858922235</v>
+        <v>1055486.186729935</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>487882.9412390168</v>
+        <v>758858.140830741</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>661111.4847254533</v>
+        <v>980536.3862720678</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>622020.1181818601</v>
+        <v>1051126.952597796</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>620625.5902485305</v>
+        <v>1050985.164512839</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>559677.6500086794</v>
+        <v>887661.9890046522</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>558448.9266410136</v>
+        <v>862192.7385185343</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>729508.8766090793</v>
+        <v>1101602.333517995</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>524471.6012692986</v>
+        <v>864717.5745002576</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>710243.4023257246</v>
+        <v>1064341.355995809</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>477699.5500081063</v>
+        <v>733426.470321567</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>611475.1180568204</v>
+        <v>934745.744690918</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>569194.2498752428</v>
+        <v>959718.2640474814</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>672475.2153940088</v>
+        <v>1127402.949142597</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>659852.4268257278</v>
+        <v>1014308.050986377</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>558756.9624581485</v>
+        <v>882488.8859102082</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>724167.1620670882</v>
+        <v>1126787.305278865</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>623831.9465316484</v>
+        <v>944805.2415917416</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>522750.1141769163</v>
+        <v>741857.2064060326</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>679837.0674321596</v>
+        <v>1194917.319169805</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>593723.1856234937</v>
+        <v>978706.0172789443</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>521978.6464419707</v>
+        <v>727474.8018083388</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>615969.61064402</v>
+        <v>1004682.459169188</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>661231.1018434358</v>
+        <v>1070033.971122897</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>500942.2792849919</v>
+        <v>704932.2379702346</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>614836.1800824904</v>
+        <v>997716.6588857989</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>669598.9759912363</v>
+        <v>1114167.438616266</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>554221.6119656106</v>
+        <v>899777.7318637677</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>564919.0200584154</v>
+        <v>957210.7530349932</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>656803.6612202551</v>
+        <v>999922.3160542618</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>619306.607059176</v>
+        <v>1019415.407141013</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>748139.2865945221</v>
+        <v>1165125.039884767</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>655921.7085189521</v>
+        <v>929860.9999188314</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>554014.5001446293</v>
+        <v>803934.9807228497</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>691854.2842481266</v>
+        <v>1142964.82751398</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>568922.6649234081</v>
+        <v>839869.0290655035</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>610870.5669488779</v>
+        <v>1055684.239733418</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>592708.3727196926</v>
+        <v>946222.0094878144</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>616570.4999714622</v>
+        <v>973265.588734887</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>569526.6561446012</v>
+        <v>887992.4191611599</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>586411.3775744102</v>
+        <v>955039.83649922</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>705628.0423047816</v>
+        <v>1134463.71961857</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>583134.2446194558</v>
+        <v>945153.3409034468</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>698718.8328968468</v>
+        <v>1012732.764300594</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>625308.2175532165</v>
+        <v>978578.7534509765</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>533629.073375222</v>
+        <v>830602.5037914206</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>623201.235144452</v>
+        <v>1074899.345362706</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>607424.2661376874</v>
+        <v>828470.3047244113</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>608468.4947554728</v>
+        <v>1060929.825874196</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>588636.718775486</v>
+        <v>883575.4623372124</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>559313.8424469929</v>
+        <v>925576.6182501747</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>436188.7628568897</v>
+        <v>669762.9484454116</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>690832.9756968122</v>
+        <v>1176121.588421496</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>625411.1203714676</v>
+        <v>1007588.383441978</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>570636.2417781982</v>
+        <v>910976.8212102419</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>562851.6242290684</v>
+        <v>983859.2103807698</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>557627.1163600192</v>
+        <v>790926.5779812244</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>809302.4453805387</v>
+        <v>1274870.054430756</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>521045.9006965448</v>
+        <v>781911.4823759149</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>552064.4849729991</v>
+        <v>905685.8894037122</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>745490.7630900677</v>
+        <v>1184544.169743561</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>704004.0294989164</v>
+        <v>1165076.792874848</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>502767.4817864441</v>
+        <v>664162.4536100385</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>647944.4292095443</v>
+        <v>984952.3359463925</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>713534.4200002401</v>
+        <v>1257443.699389983</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>450555.0561966845</v>
+        <v>665592.3547362757</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>658105.4028045472</v>
+        <v>1153644.427197009</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>628293.7764174311</v>
+        <v>859106.1432015775</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>461799.1910362751</v>
+        <v>680373.4828880883</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>755130.1556570663</v>
+        <v>1283056.054094082</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>666394.5123242633</v>
+        <v>1009590.491761048</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>410946.8782520105</v>
+        <v>609639.1714927148</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>699067.4074620148</v>
+        <v>1112371.540006129</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>727413.5034677561</v>
+        <v>1057233.768776565</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>601963.6426927075</v>
+        <v>958070.1988614241</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>502087.5632471633</v>
+        <v>765249.9318483477</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>682787.3819850804</v>
+        <v>1111797.619896372</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>648388.9093245129</v>
+        <v>999696.8134145417</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>644784.9550264501</v>
+        <v>1083203.901276925</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>518021.0664942934</v>
+        <v>803758.5857602085</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>597839.0449979547</v>
+        <v>954990.9746056949</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>641160.4189645211</v>
+        <v>1064792.95308846</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>569524.7340379958</v>
+        <v>927782.1562828238</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>603836.4132159188</v>
+        <v>878912.0821220304</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>600342.9850762626</v>
+        <v>987206.0707100236</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>666240.2649815507</v>
+        <v>918333.4055082264</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>653419.9058522335</v>
+        <v>1086764.007602641</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>648168.8560433082</v>
+        <v>1014105.652934521</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>602432.8097270183</v>
+        <v>961961.3445530558</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>508965.6149337287</v>
+        <v>860256.2025489577</v>
       </c>
     </row>
     <row r="152">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>618423.7066099494</v>
+        <v>1008432.080319207</v>
       </c>
     </row>
     <row r="153">
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>748200.9816323771</v>
+        <v>1232757.019657636</v>
       </c>
     </row>
     <row r="154">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>475530.2980492415</v>
+        <v>669015.9499991366</v>
       </c>
     </row>
     <row r="155">
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>651636.5501598502</v>
+        <v>1011537.635260016</v>
       </c>
     </row>
     <row r="156">
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>554737.8134816907</v>
+        <v>901162.9018388906</v>
       </c>
     </row>
     <row r="157">
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>684694.7682687078</v>
+        <v>1145300.42998204</v>
       </c>
     </row>
     <row r="158">
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>645615.6303576828</v>
+        <v>1027237.829813909</v>
       </c>
     </row>
     <row r="159">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>670178.9583809327</v>
+        <v>1064826.746088179</v>
       </c>
     </row>
     <row r="160">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>583442.3803385844</v>
+        <v>871948.3499367109</v>
       </c>
     </row>
     <row r="161">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>609861.7865575497</v>
+        <v>977928.3013573433</v>
       </c>
     </row>
     <row r="162">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>668643.1258022282</v>
+        <v>1098400.707597503</v>
       </c>
     </row>
     <row r="163">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>588419.4694383013</v>
+        <v>976549.7993177476</v>
       </c>
     </row>
     <row r="164">
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>579963.0085830225</v>
+        <v>825842.9333110619</v>
       </c>
     </row>
     <row r="165">
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>528700.4108549409</v>
+        <v>822177.4509650616</v>
       </c>
     </row>
     <row r="166">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>659686.1011031993</v>
+        <v>1153629.732126952</v>
       </c>
     </row>
     <row r="167">
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>577297.8571916184</v>
+        <v>951035.9374995955</v>
       </c>
     </row>
     <row r="168">
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>717653.4414531576</v>
+        <v>1063788.394908624</v>
       </c>
     </row>
     <row r="169">
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>560549.4795460436</v>
+        <v>922199.7667309726</v>
       </c>
     </row>
     <row r="170">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>561687.178469567</v>
+        <v>861064.015313618</v>
       </c>
     </row>
     <row r="171">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>582491.6047825064</v>
+        <v>899009.6534335027</v>
       </c>
     </row>
     <row r="172">
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>668254.8891431178</v>
+        <v>1083450.487289486</v>
       </c>
     </row>
     <row r="173">
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>571971.2490422784</v>
+        <v>871889.0496208877</v>
       </c>
     </row>
     <row r="174">
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>545950.7280833597</v>
+        <v>769191.1185778906</v>
       </c>
     </row>
     <row r="175">
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>615284.2375505798</v>
+        <v>969851.6409887167</v>
       </c>
     </row>
     <row r="176">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>618087.2390864437</v>
+        <v>1034501.120135262</v>
       </c>
     </row>
     <row r="177">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>599639.4424477454</v>
+        <v>929662.922779419</v>
       </c>
     </row>
     <row r="178">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>609397.4998281579</v>
+        <v>940294.5683511536</v>
       </c>
     </row>
     <row r="179">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>785224.9238874582</v>
+        <v>1298453.43069597</v>
       </c>
     </row>
     <row r="180">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>595116.8742872929</v>
+        <v>839309.9737033912</v>
       </c>
     </row>
     <row r="181">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>659880.4335648248</v>
+        <v>1209052.397250776</v>
       </c>
     </row>
     <row r="182">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>557622.9530770566</v>
+        <v>840138.2787378043</v>
       </c>
     </row>
     <row r="183">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>524648.6070567255</v>
+        <v>771352.4799331028</v>
       </c>
     </row>
     <row r="184">
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>558963.9480533972</v>
+        <v>878266.7674429698</v>
       </c>
     </row>
     <row r="185">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>609738.4798078701</v>
+        <v>1005829.993242322</v>
       </c>
     </row>
     <row r="186">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>641997.1349082853</v>
+        <v>1068011.620925044</v>
       </c>
     </row>
     <row r="187">
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>654678.2655283925</v>
+        <v>1024805.215916408</v>
       </c>
     </row>
     <row r="188">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>645489.6838794661</v>
+        <v>973597.2048331669</v>
       </c>
     </row>
     <row r="189">
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>528807.5251743527</v>
+        <v>879647.967773291</v>
       </c>
     </row>
     <row r="190">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>524783.8359399436</v>
+        <v>713749.1287008447</v>
       </c>
     </row>
     <row r="191">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>757629.2438041918</v>
+        <v>1311610.294134809</v>
       </c>
     </row>
     <row r="192">
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>702664.0262546624</v>
+        <v>1176676.079128841</v>
       </c>
     </row>
     <row r="193">
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>565852.4962696471</v>
+        <v>756788.1243080116</v>
       </c>
     </row>
     <row r="194">
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>637330.8395527622</v>
+        <v>1083255.734845919</v>
       </c>
     </row>
     <row r="195">
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>485489.6942960332</v>
+        <v>749782.9391834916</v>
       </c>
     </row>
     <row r="196">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>562439.475491785</v>
+        <v>908008.5664789845</v>
       </c>
     </row>
     <row r="197">
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>739853.8622327081</v>
+        <v>1169273.997459165</v>
       </c>
     </row>
     <row r="198">
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>563965.3817710322</v>
+        <v>832768.2725724768</v>
       </c>
     </row>
     <row r="199">
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>619613.3361812409</v>
+        <v>962513.4610515104</v>
       </c>
     </row>
     <row r="200">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>564664.7031255645</v>
+        <v>908117.7764624183</v>
       </c>
     </row>
     <row r="201">
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>547334.5295623858</v>
+        <v>926912.7713520469</v>
       </c>
     </row>
     <row r="202">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>725825.217840063</v>
+        <v>1088325.089207709</v>
       </c>
     </row>
     <row r="203">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>572647.2857750932</v>
+        <v>783515.2861138964</v>
       </c>
     </row>
     <row r="204">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>669802.5233080282</v>
+        <v>1149470.976349794</v>
       </c>
     </row>
     <row r="205">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>638767.1651769673</v>
+        <v>1078093.745031871</v>
       </c>
     </row>
     <row r="206">
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>632361.9043926907</v>
+        <v>1069118.023019008</v>
       </c>
     </row>
     <row r="207">
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>562130.0489435662</v>
+        <v>816404.4581346952</v>
       </c>
     </row>
     <row r="208">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>654427.4837986646</v>
+        <v>1047042.851977949</v>
       </c>
     </row>
     <row r="209">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>521102.6647566411</v>
+        <v>820382.3152606738</v>
       </c>
     </row>
     <row r="210">
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>670881.7461504992</v>
+        <v>1101165.32721735</v>
       </c>
     </row>
     <row r="211">
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>525942.5003355381</v>
+        <v>864783.3179663315</v>
       </c>
     </row>
     <row r="212">
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>492852.74860719</v>
+        <v>829385.6111612411</v>
       </c>
     </row>
     <row r="213">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>709927.9779389438</v>
+        <v>1197749.77444618</v>
       </c>
     </row>
     <row r="214">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>565782.0424638498</v>
+        <v>765395.4067001813</v>
       </c>
     </row>
     <row r="215">
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>775656.2419627206</v>
+        <v>1200644.284049991</v>
       </c>
     </row>
     <row r="216">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>565300.3844714309</v>
+        <v>874493.9381351811</v>
       </c>
     </row>
     <row r="217">
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>598867.7827097771</v>
+        <v>984025.6855733318</v>
       </c>
     </row>
     <row r="218">
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>688842.5770819995</v>
+        <v>1092301.488318846</v>
       </c>
     </row>
     <row r="219">
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>637103.4957337584</v>
+        <v>960364.7584159195</v>
       </c>
     </row>
     <row r="220">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>616481.8544699731</v>
+        <v>1010175.940131776</v>
       </c>
     </row>
     <row r="221">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>591144.1589000244</v>
+        <v>924081.0648151276</v>
       </c>
     </row>
     <row r="222">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>582806.9026331401</v>
+        <v>933221.4916243833</v>
       </c>
     </row>
     <row r="223">
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>648806.408737083</v>
+        <v>990017.5702639336</v>
       </c>
     </row>
     <row r="224">
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>697516.8075611547</v>
+        <v>1118870.408061824</v>
       </c>
     </row>
     <row r="225">
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>549315.7211830697</v>
+        <v>889492.2541631833</v>
       </c>
     </row>
     <row r="226">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>579074.6791674888</v>
+        <v>850180.6122708365</v>
       </c>
     </row>
     <row r="227">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>496033.7011777144</v>
+        <v>830070.1703050667</v>
       </c>
     </row>
     <row r="228">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>601080.129301513</v>
+        <v>965907.6134681095</v>
       </c>
     </row>
     <row r="229">
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>591359.1992181633</v>
+        <v>921476.4205137185</v>
       </c>
     </row>
     <row r="230">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>569667.3534387671</v>
+        <v>837543.8271020754</v>
       </c>
     </row>
     <row r="231">
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>595895.2792933967</v>
+        <v>1016289.042703363</v>
       </c>
     </row>
     <row r="232">
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>520916.7788725531</v>
+        <v>868406.1769131491</v>
       </c>
     </row>
     <row r="233">
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>677155.1095142498</v>
+        <v>1105723.441337537</v>
       </c>
     </row>
     <row r="234">
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>513641.5472185902</v>
+        <v>793229.6837128722</v>
       </c>
     </row>
     <row r="235">
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>558788.0971388964</v>
+        <v>930239.7997044688</v>
       </c>
     </row>
     <row r="236">
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>587005.2493077546</v>
+        <v>806787.5410445823</v>
       </c>
     </row>
     <row r="237">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>582253.3349004346</v>
+        <v>793717.1626648179</v>
       </c>
     </row>
     <row r="238">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>691896.5379733851</v>
+        <v>924738.1157942326</v>
       </c>
     </row>
     <row r="239">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>667791.6109996977</v>
+        <v>1044991.340393357</v>
       </c>
     </row>
     <row r="240">
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>731531.4286429045</v>
+        <v>1202313.737909338</v>
       </c>
     </row>
     <row r="241">
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>675721.4162153176</v>
+        <v>1110544.721733263</v>
       </c>
     </row>
     <row r="242">
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>572246.8549733924</v>
+        <v>881566.5078267627</v>
       </c>
     </row>
     <row r="243">
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>497323.186156339</v>
+        <v>729866.297011545</v>
       </c>
     </row>
     <row r="244">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>687747.1546071668</v>
+        <v>1190928.955812519</v>
       </c>
     </row>
     <row r="245">
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>602164.4615072842</v>
+        <v>1084392.912117791</v>
       </c>
     </row>
     <row r="246">
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>785563.6187982687</v>
+        <v>1256636.752776837</v>
       </c>
     </row>
     <row r="247">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>524076.6505319553</v>
+        <v>857783.3219460919</v>
       </c>
     </row>
     <row r="248">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>550637.7364618693</v>
+        <v>863469.0627255957</v>
       </c>
     </row>
     <row r="249">
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>689293.4011287664</v>
+        <v>1170135.000618945</v>
       </c>
     </row>
     <row r="250">
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>523207.4657641288</v>
+        <v>798359.9067650096</v>
       </c>
     </row>
     <row r="251">
@@ -3947,7 +3947,2107 @@
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>522603.8429346554</v>
+        <v>895639.0389914906</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>251</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>951344.6610198903</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>252</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1165855.516660696</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>253</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>861308.7568907466</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>254</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>950737.7291217777</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>255</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>936125.1853956238</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>256</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1033103.138732534</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>257</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>848147.296098114</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>258</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1020451.763403276</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>259</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>918533.7716533408</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>260</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>896607.4900261931</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>261</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1072128.755344667</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>262</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>973358.7034151385</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>263</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>845025.8917229539</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>264</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>927606.0163570804</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>265</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1122900.9614425</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>266</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1075965.018111302</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>267</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>839295.9766106091</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>268</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1043906.581096237</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>269</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>880212.1981595508</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>270</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1105377.010278189</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>271</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>901394.7891218539</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>272</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>835513.1210403719</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>273</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1186463.921578327</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>274</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>738698.5831681089</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>275</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1157692.335256426</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>276</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>806296.1788855642</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>277</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1045777.570747407</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>278</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>891443.4487297924</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>279</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>815988.7403694619</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>280</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>852903.1753044679</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>281</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1059183.421308818</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>282</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1059110.816466866</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>283</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1025703.202230899</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>284</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1020129.832731643</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>285</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>996698.3549762233</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>286</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>814664.6122408943</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>287</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1045210.209456378</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>288</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>993511.9033690278</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>289</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>766468.1509539561</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>290</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="n">
+        <v>964216.8600574748</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>291</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1091022.799290167</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>292</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>757314.0512864375</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>293</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1172923.010434717</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>294</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>935544.3396549547</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>295</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>874315.7850025542</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>296</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" t="n">
+        <v>840305.8161158096</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>297</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1142940.373513409</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>298</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1109797.118746971</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>299</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>928907.6764281789</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>300</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>953788.8836815057</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>301</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>885966.2729125028</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>302</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1045136.024348028</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>303</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1078901.82111083</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>304</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>895932.4620343384</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>305</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1074987.00984564</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>306</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>795238.845205432</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>307</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1012303.876482376</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>308</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>994921.8363002536</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>309</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1029917.69881669</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>310</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>941542.3182271076</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>311</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>700295.1182449977</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>312</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>999341.5757471574</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>313</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1238985.984047535</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>314</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>670877.738093426</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>315</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1122983.303246827</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>316</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1063615.278624911</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>317</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>903365.0873286196</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>318</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>922535.7487391694</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>319</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1082651.092478212</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>320</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>810012.7385820318</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>321</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>992260.5857435074</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>322</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>938958.2905520382</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>323</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>902771.6950177044</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>324</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>828678.3281878794</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>325</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>990191.8441431406</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>326</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>755190.928269574</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>327</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1049929.683593158</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>328</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>898934.8610933034</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>329</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1304086.37221513</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>330</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>976415.2909267176</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>331</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1085180.485383167</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>332</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>857046.5364858786</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>333</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1040862.931429442</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>334</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1107776.674054579</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>335</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>983399.5489350389</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>336</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1030344.435270457</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>337</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>808498.359668142</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>338</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1132261.903664067</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>339</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" t="n">
+        <v>986218.504866948</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>340</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>760914.1769424187</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>341</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1076285.556061982</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>342</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>957872.2785079193</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>343</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" t="n">
+        <v>800906.1395454066</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>344</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>985886.340020627</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>345</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1025690.742565645</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>346</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1195101.211278806</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>347</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" t="n">
+        <v>835374.7390173958</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>348</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1051995.420679953</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>349</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" t="n">
+        <v>705027.9025957448</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>350</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1208325.31377784</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>351</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>887150.6015435214</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>352</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" t="n">
+        <v>749213.7125305149</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>353</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1111217.710065756</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>354</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1121994.663382322</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>355</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>791328.070186122</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>356</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+      <c r="D357" t="n">
+        <v>930694.6948021307</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>357</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1122015.304991484</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>358</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1062700.147312925</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>359</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>832174.3104939439</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>360</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>970357.6195824327</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>361</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1066050.120207875</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>362</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>718859.1800583169</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>363</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+      <c r="D364" t="n">
+        <v>863810.7790052774</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>364</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" t="n">
+        <v>927007.7813938998</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>365</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1198647.308136591</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>366</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>950699.7278967049</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>367</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>954153.3369154392</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>368</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>935699.5774596093</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>369</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1</v>
+      </c>
+      <c r="D370" t="n">
+        <v>908904.2226837401</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>370</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1011126.01484748</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>371</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1139596.416315011</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>372</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+      <c r="D373" t="n">
+        <v>680773.7042991491</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>373</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>996260.7435469731</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>374</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1</v>
+      </c>
+      <c r="D375" t="n">
+        <v>898886.1299091066</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>375</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1011697.099104549</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>376</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+      <c r="D377" t="n">
+        <v>989350.7613734312</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>377</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>889375.6458447557</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>378</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" t="n">
+        <v>946318.7313698444</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>379</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+      <c r="D380" t="n">
+        <v>962092.4837749611</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>380</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>997753.644868986</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>381</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>973100.4314520541</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>382</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+      <c r="D383" t="n">
+        <v>951246.0131955689</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>383</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>955625.876515905</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>384</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>990207.8850001001</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>385</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1074089.87680444</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>386</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="n">
+        <v>957600.2041272523</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>387</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" t="n">
+        <v>859138.0310411105</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>388</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1076436.278668545</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>389</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1019021.149843191</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>390</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1059277.088102458</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>391</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+      <c r="D392" t="n">
+        <v>928981.8981764803</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>392</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1000938.781742672</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>393</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1</v>
+      </c>
+      <c r="D394" t="n">
+        <v>780879.2147490983</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>394</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1026983.183548632</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>395</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>717835.2495480833</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>396</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1106893.550762207</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>397</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1</v>
+      </c>
+      <c r="D398" t="n">
+        <v>971823.9893017394</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>398</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
+      <c r="D399" t="n">
+        <v>970072.0206331512</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>399</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+      <c r="D400" t="n">
+        <v>981764.1009297444</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>400</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1</v>
+      </c>
+      <c r="D401" t="n">
+        <v>983418.7168418157</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 6/objective_value.xlsx
+++ b/Resultados/Escenario 6/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1211528.267892922</v>
+        <v>966890.9008617472</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1074361.293815414</v>
+        <v>1551778.379292915</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1266488.72105084</v>
+        <v>1136113.589279279</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1259867.683168319</v>
+        <v>1302951.715437328</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1310504.424387616</v>
+        <v>1200400.454305124</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1368965.201931303</v>
+        <v>1395718.767879608</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1223965.037665224</v>
+        <v>841376.6341210317</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1215659.630194325</v>
+        <v>1034876.950060695</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1079550.991863345</v>
+        <v>1205676.531799154</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1226710.168506621</v>
+        <v>791580.4877098884</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1162370.567394926</v>
+        <v>796017.5094112754</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1186761.124953001</v>
+        <v>1047727.441400523</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1135049.954882047</v>
+        <v>1176079.448194698</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1023260.157195257</v>
+        <v>1073661.15975488</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1140661.313505761</v>
+        <v>1011873.775495287</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1101592.804320274</v>
+        <v>1046758.546063511</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1086099.209447721</v>
+        <v>1143498.7054956</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1069286.074227814</v>
+        <v>1185043.716602989</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1059304.264216596</v>
+        <v>977646.4866866388</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1051771.844469582</v>
+        <v>1136635.6951357</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1043592.147754878</v>
+        <v>939344.2587066825</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1036223.822846258</v>
+        <v>1015053.934733194</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1030550.932641622</v>
+        <v>1086646.340260063</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1026275.116642548</v>
+        <v>859162.6840915055</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1021458.023842896</v>
+        <v>832261.4313602953</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1021026.678955722</v>
+        <v>950138.2180830478</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1021026.636777087</v>
+        <v>839408.8850284315</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1021026.636777087</v>
+        <v>1167890.782161771</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1021026.636777087</v>
+        <v>950447.2507187898</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,1687 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1021026.636777087</v>
+        <v>1073460.038457875</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1265917.750651732</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>850264.971759186</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>825527.8138743477</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1144539.044787522</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1084829.858391913</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1188068.970113914</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>960748.5543316713</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1098480.833103558</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>949629.6729651323</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1145055.647386688</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>833173.0300514981</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1133606.149096077</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>915147.6262119656</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>876698.0146714333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1167782.973733441</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1096871.858809305</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>929627.8872420976</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1058519.144784249</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>894669.7886372141</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1117769.344096243</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>827570.2954752417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1013413.954970019</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1064853.694230392</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>897330.5029355931</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1010070.608985245</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1091350.518215366</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>905541.6355522618</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1131338.90626599</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1046274.041014007</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>983589.8906556698</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1048681.556853671</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>793817.2610666261</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1025076.908479977</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1010339.395896214</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1061266.946134553</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>908698.7145824666</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>956094.8637380511</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1074298.362503201</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>890206.4245643453</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1130272.872842487</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>805153.156803356</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>950528.0251259982</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>935708.9331348983</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1026914.032718073</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1031027.512690966</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>993368.7851219954</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1179527.122660661</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1035172.039644463</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>864163.2768846746</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1127119.104981994</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>937675.7846377318</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>859271.0085156807</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1005043.171891085</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1022261.724284925</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>847473.5614820208</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1020476.066266683</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1101860.067411001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>912919.9069581113</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>972361.8203396345</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>964422.2810493202</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>984123.55770782</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1190738.534529255</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1073796.579861809</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>990316.9110009412</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1032202.211742007</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>940511.5019690653</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>981294.405527649</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>989056.7310894514</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>975667.8946686374</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>912379.8743943231</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1046585.500215481</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1115496.450661643</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>970864.8484954905</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1142324.318661307</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1024958.72904006</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>880635.7278547662</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1000961.685235903</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>984612.5038430509</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>991802.2403243061</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>924030.7777528611</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1043207.635052638</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>708090.7013842743</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1112965.313606393</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1005092.072042791</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>980513.7310432565</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>989702.4777065347</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>862123.3319777008</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1236974.242369118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>868525.9938967078</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>900661.7542563096</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1102785.548992731</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1160156.978099547</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>820367.6777879649</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1049401.126488992</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1162220.352790398</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>740416.0430910144</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1072365.390688638</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>128</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>977425.4096445711</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>129</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>747916.9686841625</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>130</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1240569.061709773</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>131</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1105334.730085711</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>132</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>691952.1486800197</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>133</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1038315.091375198</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>134</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1215542.657645268</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>993723.090218401</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>815559.2079750596</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1088115.630795802</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>138</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1037045.22679691</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>139</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1021525.913059274</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>140</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>863398.8156458302</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>986734.6243578545</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>142</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1005418.150977384</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>981658.9907356084</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>958706.822324342</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>979522.1471845746</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1027451.588060506</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1185974.918093089</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1032266.806768457</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>982990.2205059759</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>874510.3756386603</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 6/objective_value.xlsx
+++ b/Resultados/Escenario 6/objective_value.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>966890.9008617472</v>
+        <v>1381372.420472553</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1551778.379292915</v>
+        <v>1343547.597279908</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1136113.589279279</v>
+        <v>1300411.21158181</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1302951.715437328</v>
+        <v>1303118.686304959</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1200400.454305124</v>
+        <v>1272703.344586064</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1395718.767879608</v>
+        <v>1249057.460580859</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>841376.6341210317</v>
+        <v>1250293.88643143</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1034876.950060695</v>
+        <v>1248216.815185122</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1205676.531799154</v>
+        <v>1175851.413606809</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>791580.4877098884</v>
+        <v>1183629.806538172</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>796017.5094112754</v>
+        <v>1184576.039040296</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1047727.441400523</v>
+        <v>1137060.758028933</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1176079.448194698</v>
+        <v>1121635.61213342</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1073661.15975488</v>
+        <v>1085040.583189739</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1011873.775495287</v>
+        <v>1092626.141905054</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1046758.546063511</v>
+        <v>1073852.526920129</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1143498.7054956</v>
+        <v>1061298.435098933</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1185043.716602989</v>
+        <v>1056133.145632115</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>977646.4866866388</v>
+        <v>1047869.035486269</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1136635.6951357</v>
+        <v>1041043.900354588</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>939344.2587066825</v>
+        <v>1036777.596082235</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1015053.934733194</v>
+        <v>1032384.920219928</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1086646.340260063</v>
+        <v>1027858.34712258</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>859162.6840915055</v>
+        <v>1023181.560810319</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>832261.4313602953</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>950138.2180830478</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>839408.8850284315</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1167890.782161771</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>950447.2507187898</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1073460.038457875</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1265917.750651732</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>850264.971759186</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>825527.8138743477</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1144539.044787522</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1084829.858391913</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1188068.970113914</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>960748.5543316713</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1098480.833103558</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>949629.6729651323</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1145055.647386688</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>833173.0300514981</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1133606.149096077</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>915147.6262119656</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>876698.0146714333</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1167782.973733441</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1096871.858809305</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>929627.8872420976</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1058519.144784249</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>894669.7886372141</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1117769.344096243</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>827570.2954752417</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1013413.954970019</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1064853.694230392</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>897330.5029355931</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1010070.608985245</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1091350.518215366</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>905541.6355522618</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1131338.90626599</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1046274.041014007</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>983589.8906556698</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1048681.556853671</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>793817.2610666261</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1025076.908479977</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1010339.395896214</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1061266.946134553</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>908698.7145824666</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>956094.8637380511</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1074298.362503201</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>890206.4245643453</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1130272.872842487</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>805153.156803356</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>950528.0251259982</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>935708.9331348983</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1026914.032718073</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1031027.512690966</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>993368.7851219954</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1179527.122660661</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1035172.039644463</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>864163.2768846746</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1127119.104981994</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>937675.7846377318</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>859271.0085156807</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1005043.171891085</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1022261.724284925</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>847473.5614820208</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1020476.066266683</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1101860.067411001</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>912919.9069581113</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>972361.8203396345</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>964422.2810493202</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>984123.55770782</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1190738.534529255</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1073796.579861809</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>990316.9110009412</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1032202.211742007</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>940511.5019690653</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>981294.405527649</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>989056.7310894514</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>975667.8946686374</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>912379.8743943231</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1046585.500215481</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1115496.450661643</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>970864.8484954905</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1142324.318661307</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1024958.72904006</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>880635.7278547662</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1000961.685235903</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>984612.5038430509</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>991802.2403243061</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>924030.7777528611</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1043207.635052638</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>708090.7013842743</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1112965.313606393</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1005092.072042791</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>980513.7310432565</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>989702.4777065347</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>862123.3319777008</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1236974.242369118</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>868525.9938967078</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>900661.7542563096</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1102785.548992731</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1160156.978099547</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>820367.6777879649</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1049401.126488992</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1162220.352790398</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>740416.0430910144</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1072365.390688638</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>977425.4096445711</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>747916.9686841625</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1240569.061709773</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1105334.730085711</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>691952.1486800197</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1038315.091375198</v>
+        <v>1021026.685004373</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1215542.657645268</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>993723.090218401</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>815559.2079750596</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1088115.630795802</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1037045.22679691</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>1021525.913059274</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>863398.8156458302</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>986734.6243578545</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1005418.150977384</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>981658.9907356084</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>958706.822324342</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>979522.1471845746</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1027451.588060506</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1185974.918093089</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1032266.806768457</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>982990.2205059759</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>874510.3756386603</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 6/objective_value.xlsx
+++ b/Resultados/Escenario 6/objective_value.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1381372.420472553</v>
+        <v>1371024.409479772</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1343547.597279908</v>
+        <v>1333877.941440598</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1300411.21158181</v>
+        <v>1331264.529988031</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1303118.686304959</v>
+        <v>1320780.664068914</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1272703.344586064</v>
+        <v>1276680.946196594</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1249057.460580859</v>
+        <v>1246749.876660116</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1250293.88643143</v>
+        <v>1256938.74652077</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1248216.815185122</v>
+        <v>1231532.974268401</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1175851.413606809</v>
+        <v>1194462.805096415</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1183629.806538172</v>
+        <v>1179895.002945186</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1184576.039040296</v>
+        <v>1159148.27925434</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1137060.758028933</v>
+        <v>1140123.636860631</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1121635.61213342</v>
+        <v>1116969.378450224</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1085040.583189739</v>
+        <v>1105990.228951101</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1092626.141905054</v>
+        <v>1089152.304591897</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1073852.526920129</v>
+        <v>1073072.9652783</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1061298.435098933</v>
+        <v>1060177.985298035</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1056133.145632115</v>
+        <v>1050964.549218379</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1047869.035486269</v>
+        <v>1046513.797057157</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1041043.900354588</v>
+        <v>1038955.101056196</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1036777.596082235</v>
+        <v>1034661.223555739</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1032384.920219928</v>
+        <v>1030069.09614431</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1027858.34712258</v>
+        <v>1025761.598893194</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1023181.560810319</v>
+        <v>1021027.237022881</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="30">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="32">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="34">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="36">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="38">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="40">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="42">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="44">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="46">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="48">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="50">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="54">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="56">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="58">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="60">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="62">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="64">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="66">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="68">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="70">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="72">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="74">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="76">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="78">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="80">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="82">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="84">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="86">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="88">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="90">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="92">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="94">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="96">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="98">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="100">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="102">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="104">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="106">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="108">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="110">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="112">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="114">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="116">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="118">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="120">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="122">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="124">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="126">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="128">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="130">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="132">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1021026.685004373</v>
+        <v>1021026.685004374</v>
       </c>
     </row>
     <row r="135">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="138">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="140">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="142">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="144">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="146">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="148">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="150">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
   </sheetData>
